--- a/500all/speech_level/speeches_CHRG-114hhrg20098.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20098.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,16 +52,10 @@
     <t>400380</t>
   </si>
   <si>
-    <t>Christopher H. Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Smith. The hearing will come to order, and good afternoon to everyone.    Among the potential partners in the Trans-Pacific Partnership, or TPP, Vietnam is the only country that bans independent religious groups, the only country considered one of the world's worst violators in Internet freedom. Vietnam harbors severe child labor and forced child labor violators and regularly jails and tortures those who speak out for human rights, political inclusion, or the right to practice their religion. There are today over 100 prisoners of conscience in Vietnam.    Nguyen Van Dai spent 4 years in jail and 4 additional years under house arrest for defending religious freedom and calling for greater democratization in Vietnamese society. He was detained again and brutally beaten last December for continuing his work. His arbitrary detention undercuts any claim that the current Vietnamese leadership can become a trusted U.S. partner.    Prior to his arrest, I had the privilege of meeting with him in Hanoi at his law office at 10 Doan Tran Nghiep Street in December 2005. I was deeply impressed with his passion for truth, his defense of universally recognized human rights, his faith, his extraordinary courage, and his deep and abiding love for Vietnam. He is truly a patriot.    Nguyen Van Dai's wife, Vu Minh Khanh, is with us today to speak on his behalf and for the other prisoners of conscience in Vietnam. Her testimony is especially timely because President Obama will travel to Vietnam at the end of this month. A steady stream of State Department officials are going to Vietnam prior to the trip. In fact, the Assistant Secretary of State for Democracy, Human Rights, and Labor, Tom Malinowski is in Vietnam today.    The administration should not try to whitewash Vietnam's record prior to the President's trip, but must make absolutely clear and unequivocal statements in support of democracy and free speech advocates, disfavored religious and ethnic minority groups, and human rights defenders.    The unconditional release of Nguyen Van Dai and other prisoners of conscience should be a precondition of the President's visit. However, if the President goes without any conditionality, I appeal, this subcommittee appeals, to the President to demand the immediate and unconditional freedom and release of Nguyen Van Dai and the others.    I also encourage the President to meet with those in Vietnam who share our interests in democracy and human rights in Vietnam. Doing so will send a clear message about U.S. interests to the vast majority of Vietnamese, some 66 percent who were born after the Vietnam War ended.    The administration should also make clear to the Communist leaders in Hanoi that the further expansion of trade and security partnerships, the lifting of the arms embargo is unacceptable until there are significant, verifiable, and irreversible improvements in human rights in Vietnam. Unfortunately, for the past 7-plus years, the administration has failed to deliver such messages to victims of abuse anywhere. No tough message was delivered in Cuba, for example, despite an escalation of arrests and abuse.    The administration seems eager to proceed with lucrative trade and to lift the ban on lethal arms sales to Vietnam without imposing any real conditions. That would be a colossal mistake. The administration surely will justify extending these generous benefits by arguing that lifting the trade barriers and expanding diplomatic engagement with Vietnam will bring about human rights and other positive advances. Such arguments have long been discredited, however. In China, for example, or more recently in Bahrain, and there is evidence such arguments failed miserably in Vietnam as well.    In 2007, after the United States lifted its longstanding objection to Vietnam's membership in the World Trade Organization, Hanoi responded by launching the first of three waves of arrests that jailed more than 100 dissidents and introduced sweeping new laws restricting freedom of association, assembly, and the Internet. In short, Vietnam's WTO membership allowed the Communist government free license to jail, torture, and abuse. The pressure was off. Why would they not do so again?    The Communist leadership in Hanoi will take our benefits, our trade benefits, our security commitments, and continue repressing those seeking political reform and universal freedoms. The business of the Communist party is staying in power and repressing those who may challenge their power. They will not embrace human rights improvements or the rule of law, unless it is a condition of better relations with the United States.    Vietnam needs the U.S. markets and security commitments much more than the United States needs Vietnam's markets and security cooperation. The administration should demand additional protections for human rights, Internet freedom, and the rule of law as a condition of U.S. assistance. Not doing so is shortsighted, misguided, and fails to achieve long-term U.S. interests, and it throws the victims under the bus.    One way to send an important message about U.S. policy priorities is to pass the Vietnam Human Rights Act, H.R. 2140, which I have reintroduced in this Congress and is now waiting further action in the House and Senate. I would note parenthetically that past iterations of the Vietnam Human Rights Act that I have introduced in previous Congresses have passed the House four times, only to be ignored in the Senate.    The bill stipulates that the United States cannot increase nonhumanitarian assistance to Vietnam until the President certifies that the Government of Vietnam has made substantial progress in establishing human rights protections. The American people should not have to subsidize torture or underwrite the jailing of journalists, religious leaders, labor activists, or advocates of democracy, or Internet freedom.    The bipartisan Vietnam Human Rights Act will restore the right priorities to U.S. policy toward Vietnam. The Communist party is not Vietnam's future. That future lies with Nguyen Van Dai and many other advocates of political reform and human rights who seek our freedoms more than our trade. U.S. policy must send the unmistakable message to the Government of Vietnam that human rights improvements are fundamental to better relations, critically linked to our mutual economic and security interests, and will not, I say again, will not be ignored or be bargained away.    I would like to now introduce our very distinguished witness today, Ms. Vu Minh Khanh, who is the wife of human rights lawyer Mr. Nguyen Van Dai, as I said earlier, who was arrested in December, December 16 to be exact, in 2015 under article 88 of the Vietnamese penal code for ``conducting propaganda against the state.''    Since his arrest, Ms. Vu has been advocating for his release, meeting with international delegates, starting petitions, and giving interviews with various media agencies to raise awareness of Dai's case. She has volunteered at a church in Hanoi and has been doing so since 2009. The church reaches out to many vulnerable groups, including those who suffer from drug addiction, orphans, and youth. In addition to providing support and counseling to those groups, Ms. Vu also assists with the daily financial management of the organization and works to promote and protect human rights through the church.    I would like to now yield to our distinguished chairman of the full Committee on Foreign Affairs, Mr. Ed Royce.</t>
   </si>
   <si>
     <t>N/A</t>
-  </si>
-  <si>
-    <t>Royce</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Royce. Well, thank you. I just would start by thanking Chris Smith for holding this hearing at exactly the right time because now is the time we have to get the attention of the international community on these human rights abuses.    And so, yes, in a few weeks, the President of the United States is going to be traveling to Vietnam. And while maintaining peace in the South China Sea and improving trade ties is an important shared goal, the administration must carefully take into account Vietnam's human rights abuses as this relationship develops. And that is the conundrum, because this has not gotten better.    I met with the Venerable Thich Quang Do as well as one of the other religious leaders in Vietnam when they were under house arrest years ago. I heard about the circumstances. I check in with human rights NGOs, and as we all know, this situation is not improving. Human rights have to be at the very top of the President's agenda.    No matter how the administration frames our relationship, the reality, as we all know, is that Vietnam remains a one party Communist state with significant human rights abuses. And as we will hear today from the wife of an imprisoned human rights lawyer and activist--and I want to thank Chris Smith for his efforts here to elevate this issue--but as we will hear, Nguyen Van Dai, she will share with us the reality that Vietnam has a long, long way to go.    In December, Nguyen Van Dai was badly beaten by government--well, I guess we should call them thugs because they beat him. And taken into custody. And since that time, they took her husband into custody. And since that time, he has been denied access to his lawyer and even his family. He sits in solitary confinement. His condition is unknown. And Ms. Vu is rightly concerned.    Sadly, Nguyen Van Dai's treatment is far from an isolated incident. According to Human Rights Watch, police still frequently torture suspects to elicit confessions and sometimes use excessive force in responding to protests over evictions, land confiscation--because land grabbing is one of the things the party does--and other social issues.    Last year, more than 40 bloggers and rights activists were beaten by plainclothes government agents. Not surprisingly, not one of these thugs who did the beatings was held responsible. Vietnam's penal code criminalizes criticism of the government and abuse of democratic freedoms. While other laws restrict freedom of religion and the media, bloggers like Anh Ba Sam, Nguyen Thi Minh Thuy, and Nguyen Ngoc Gia remain in prison for their advocacy of human rights, in prison for what the state or what the Communist party calls abusing the rights to freedom of democracy.    Not surprisingly, Vietnam now ranks, in the world, 175th out of 180 countries for press freedom. Now, that means Vietnam is behind Cuba. It is worse than Saudi Arabia. It is worse than Iran. That is why we are here at this hearing.    Freedom of religion is a significant concern in Vietnam as the government continues to restrict religious practice through registration requirements, through harassment, and through surveillance. Branches of the Cao Dai and Hoa Hao Buddhist church, and independent Catholics and Protestants, are banned. They face government harassment for their peaceful religious practice. The Venerable Thich Quang Do, who both Chairman Smith and I have met with, has remained under house arrest since 1998 for his religious beliefs.    If the United States and Vietnam are to build a stronger relationship, the Vietnamese Government must honor the basic human rights of Vietnamese people with respect to freedom of speech, religion, and assembly. And that is the message the President of the United States needs to send during his upcoming visit.    I wrote to the President last week asking that he carry exactly that message. We are all watching. The President's trip cannot be a replay of his trip to Havana. We have to have these issues addressed.    And, Mr. Chairman, thank you again for calling this important and timely hearing.</t>
@@ -487,11 +481,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -511,13 +503,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -539,11 +529,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -565,11 +553,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -591,11 +577,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -617,11 +601,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -643,11 +625,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -669,11 +649,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -695,11 +673,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -721,11 +697,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20098.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20098.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,10 +55,19 @@
     <t>400380</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Christopher</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Smith. The hearing will come to order, and good afternoon to everyone.    Among the potential partners in the Trans-Pacific Partnership, or TPP, Vietnam is the only country that bans independent religious groups, the only country considered one of the world's worst violators in Internet freedom. Vietnam harbors severe child labor and forced child labor violators and regularly jails and tortures those who speak out for human rights, political inclusion, or the right to practice their religion. There are today over 100 prisoners of conscience in Vietnam.    Nguyen Van Dai spent 4 years in jail and 4 additional years under house arrest for defending religious freedom and calling for greater democratization in Vietnamese society. He was detained again and brutally beaten last December for continuing his work. His arbitrary detention undercuts any claim that the current Vietnamese leadership can become a trusted U.S. partner.    Prior to his arrest, I had the privilege of meeting with him in Hanoi at his law office at 10 Doan Tran Nghiep Street in December 2005. I was deeply impressed with his passion for truth, his defense of universally recognized human rights, his faith, his extraordinary courage, and his deep and abiding love for Vietnam. He is truly a patriot.    Nguyen Van Dai's wife, Vu Minh Khanh, is with us today to speak on his behalf and for the other prisoners of conscience in Vietnam. Her testimony is especially timely because President Obama will travel to Vietnam at the end of this month. A steady stream of State Department officials are going to Vietnam prior to the trip. In fact, the Assistant Secretary of State for Democracy, Human Rights, and Labor, Tom Malinowski is in Vietnam today.    The administration should not try to whitewash Vietnam's record prior to the President's trip, but must make absolutely clear and unequivocal statements in support of democracy and free speech advocates, disfavored religious and ethnic minority groups, and human rights defenders.    The unconditional release of Nguyen Van Dai and other prisoners of conscience should be a precondition of the President's visit. However, if the President goes without any conditionality, I appeal, this subcommittee appeals, to the President to demand the immediate and unconditional freedom and release of Nguyen Van Dai and the others.    I also encourage the President to meet with those in Vietnam who share our interests in democracy and human rights in Vietnam. Doing so will send a clear message about U.S. interests to the vast majority of Vietnamese, some 66 percent who were born after the Vietnam War ended.    The administration should also make clear to the Communist leaders in Hanoi that the further expansion of trade and security partnerships, the lifting of the arms embargo is unacceptable until there are significant, verifiable, and irreversible improvements in human rights in Vietnam. Unfortunately, for the past 7-plus years, the administration has failed to deliver such messages to victims of abuse anywhere. No tough message was delivered in Cuba, for example, despite an escalation of arrests and abuse.    The administration seems eager to proceed with lucrative trade and to lift the ban on lethal arms sales to Vietnam without imposing any real conditions. That would be a colossal mistake. The administration surely will justify extending these generous benefits by arguing that lifting the trade barriers and expanding diplomatic engagement with Vietnam will bring about human rights and other positive advances. Such arguments have long been discredited, however. In China, for example, or more recently in Bahrain, and there is evidence such arguments failed miserably in Vietnam as well.    In 2007, after the United States lifted its longstanding objection to Vietnam's membership in the World Trade Organization, Hanoi responded by launching the first of three waves of arrests that jailed more than 100 dissidents and introduced sweeping new laws restricting freedom of association, assembly, and the Internet. In short, Vietnam's WTO membership allowed the Communist government free license to jail, torture, and abuse. The pressure was off. Why would they not do so again?    The Communist leadership in Hanoi will take our benefits, our trade benefits, our security commitments, and continue repressing those seeking political reform and universal freedoms. The business of the Communist party is staying in power and repressing those who may challenge their power. They will not embrace human rights improvements or the rule of law, unless it is a condition of better relations with the United States.    Vietnam needs the U.S. markets and security commitments much more than the United States needs Vietnam's markets and security cooperation. The administration should demand additional protections for human rights, Internet freedom, and the rule of law as a condition of U.S. assistance. Not doing so is shortsighted, misguided, and fails to achieve long-term U.S. interests, and it throws the victims under the bus.    One way to send an important message about U.S. policy priorities is to pass the Vietnam Human Rights Act, H.R. 2140, which I have reintroduced in this Congress and is now waiting further action in the House and Senate. I would note parenthetically that past iterations of the Vietnam Human Rights Act that I have introduced in previous Congresses have passed the House four times, only to be ignored in the Senate.    The bill stipulates that the United States cannot increase nonhumanitarian assistance to Vietnam until the President certifies that the Government of Vietnam has made substantial progress in establishing human rights protections. The American people should not have to subsidize torture or underwrite the jailing of journalists, religious leaders, labor activists, or advocates of democracy, or Internet freedom.    The bipartisan Vietnam Human Rights Act will restore the right priorities to U.S. policy toward Vietnam. The Communist party is not Vietnam's future. That future lies with Nguyen Van Dai and many other advocates of political reform and human rights who seek our freedoms more than our trade. U.S. policy must send the unmistakable message to the Government of Vietnam that human rights improvements are fundamental to better relations, critically linked to our mutual economic and security interests, and will not, I say again, will not be ignored or be bargained away.    I would like to now introduce our very distinguished witness today, Ms. Vu Minh Khanh, who is the wife of human rights lawyer Mr. Nguyen Van Dai, as I said earlier, who was arrested in December, December 16 to be exact, in 2015 under article 88 of the Vietnamese penal code for ``conducting propaganda against the state.''    Since his arrest, Ms. Vu has been advocating for his release, meeting with international delegates, starting petitions, and giving interviews with various media agencies to raise awareness of Dai's case. She has volunteered at a church in Hanoi and has been doing so since 2009. The church reaches out to many vulnerable groups, including those who suffer from drug addiction, orphans, and youth. In addition to providing support and counseling to those groups, Ms. Vu also assists with the daily financial management of the organization and works to promote and protect human rights through the church.    I would like to now yield to our distinguished chairman of the full Committee on Foreign Affairs, Mr. Ed Royce.</t>
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Royce</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Royce. Well, thank you. I just would start by thanking Chris Smith for holding this hearing at exactly the right time because now is the time we have to get the attention of the international community on these human rights abuses.    And so, yes, in a few weeks, the President of the United States is going to be traveling to Vietnam. And while maintaining peace in the South China Sea and improving trade ties is an important shared goal, the administration must carefully take into account Vietnam's human rights abuses as this relationship develops. And that is the conundrum, because this has not gotten better.    I met with the Venerable Thich Quang Do as well as one of the other religious leaders in Vietnam when they were under house arrest years ago. I heard about the circumstances. I check in with human rights NGOs, and as we all know, this situation is not improving. Human rights have to be at the very top of the President's agenda.    No matter how the administration frames our relationship, the reality, as we all know, is that Vietnam remains a one party Communist state with significant human rights abuses. And as we will hear today from the wife of an imprisoned human rights lawyer and activist--and I want to thank Chris Smith for his efforts here to elevate this issue--but as we will hear, Nguyen Van Dai, she will share with us the reality that Vietnam has a long, long way to go.    In December, Nguyen Van Dai was badly beaten by government--well, I guess we should call them thugs because they beat him. And taken into custody. And since that time, they took her husband into custody. And since that time, he has been denied access to his lawyer and even his family. He sits in solitary confinement. His condition is unknown. And Ms. Vu is rightly concerned.    Sadly, Nguyen Van Dai's treatment is far from an isolated incident. According to Human Rights Watch, police still frequently torture suspects to elicit confessions and sometimes use excessive force in responding to protests over evictions, land confiscation--because land grabbing is one of the things the party does--and other social issues.    Last year, more than 40 bloggers and rights activists were beaten by plainclothes government agents. Not surprisingly, not one of these thugs who did the beatings was held responsible. Vietnam's penal code criminalizes criticism of the government and abuse of democratic freedoms. While other laws restrict freedom of religion and the media, bloggers like Anh Ba Sam, Nguyen Thi Minh Thuy, and Nguyen Ngoc Gia remain in prison for their advocacy of human rights, in prison for what the state or what the Communist party calls abusing the rights to freedom of democracy.    Not surprisingly, Vietnam now ranks, in the world, 175th out of 180 countries for press freedom. Now, that means Vietnam is behind Cuba. It is worse than Saudi Arabia. It is worse than Iran. That is why we are here at this hearing.    Freedom of religion is a significant concern in Vietnam as the government continues to restrict religious practice through registration requirements, through harassment, and through surveillance. Branches of the Cao Dai and Hoa Hao Buddhist church, and independent Catholics and Protestants, are banned. They face government harassment for their peaceful religious practice. The Venerable Thich Quang Do, who both Chairman Smith and I have met with, has remained under house arrest since 1998 for his religious beliefs.    If the United States and Vietnam are to build a stronger relationship, the Vietnamese Government must honor the basic human rights of Vietnamese people with respect to freedom of speech, religion, and assembly. And that is the message the President of the United States needs to send during his upcoming visit.    I wrote to the President last week asking that he carry exactly that message. We are all watching. The President's trip cannot be a replay of his trip to Havana. We have to have these issues addressed.    And, Mr. Chairman, thank you again for calling this important and timely hearing.</t>
@@ -431,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,7 +451,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,245 +473,296 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20098.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20098.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -53,6 +56,9 @@
   </si>
   <si>
     <t>400380</t>
+  </si>
+  <si>
+    <t>Chair</t>
   </si>
   <si>
     <t>Smith</t>
@@ -443,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +457,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -476,293 +482,324 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G11" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>26</v>
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
